--- a/Data/Ship_Database.xlsx
+++ b/Data/Ship_Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peng\Documents\WorkStation Folder\Python Projects\Star Citizen Database Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peng\Documents\Python Workshop\Star Citizen Database Bot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE375F1-080C-41E8-B61C-EF07D8BA68AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DF1F2-9B35-46BD-9AEC-B315FE2E0259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>함선명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Aurora ES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aurora는 Roberts Space Industries 사의 X-7의 후예로, 최초로 초기형 점프엔진이 시운전된 기종입니다. 실용적인 Aurora는 완벽한 초심자용 함선입니다. 외관이 뛰어나진 않아도 업그레이드 모듈을 위한 충분한 공간을 제공합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roberts Space Industries</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +117,317 @@
   </si>
   <si>
     <t>Aurora LX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>30m/17m/8m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명/2명</t>
+  </si>
+  <si>
+    <t>168ms / 1,220ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228,123kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollo Triage</t>
+  </si>
+  <si>
+    <t>컨셉단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43m/30m/10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205ms / ????ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376,500kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28SCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명/2명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollo Medivac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417,510kg</t>
+  </si>
+  <si>
+    <t>419,850kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416,009kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>439,108kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96SCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80SCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???SCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61m/26m/14m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3명/4명</t>
+  </si>
+  <si>
+    <t>3명/4명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207ms / ????ms</t>
+  </si>
+  <si>
+    <t>208ms / ????ms</t>
+  </si>
+  <si>
+    <t>209ms / ????ms</t>
+  </si>
+  <si>
+    <t>210ms / ????ms</t>
+  </si>
+  <si>
+    <t>150ms / 911ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????ms / ????ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constellation Andromeda</t>
+  </si>
+  <si>
+    <t>Constellation Taurus</t>
+  </si>
+  <si>
+    <t>Constellation Aquila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constellation Phoenix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constellation Phoenix Emerald</t>
+  </si>
+  <si>
+    <t>417,510kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨스텔레이션 시리즈 중 안드로메다는 RSI의 대표적인 다목적 중형함입니다. 얼사로버가 한대 들어갈 정도의 화물고와 양측면과 상부의 다연장 미사일 런처는 해당 함선을 다양하게 사용할 수 있는 기회를 만들어줍니다. 또한 후방에 도킹 가능한 P-52 멀린을 이용하여 단거리 정찰을 가능하도록 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아폴로 시리즈는 약 2세기 동안 전 우주에서 중요한 지원역할을 수행하였으며, 의료 및 응급상황에서의 신속한 대응에 가장 뛰어난 표준 의료선입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨티스는 Quantum Enforcement을 이용해 퀀텀 여행 중인 목표물을 끌어낼 수 있는 차단함입니다. 무장과 장갑이 빈약하지만, 일반적으로 다른 함선에게 호위를 받으면서 작업을 수행하므로 큰 문제는 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로라 시리즈는 Roberts Space Industries 사의 X-7의 후예로, 최초로 초기형 점프엔진이 시운전된 기종입니다. 실용적인 Aurora는 완벽한 초심자용 함선입니다. 외관이 뛰어나진 않아도 업그레이드 모듈을 위한 충분한 공간을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨스텔레이션 시리즈 중 타우러스는 안드로메다의 하부 포탑을 제거하고 리프트식 화물고를 개조하여 수송능력을 극대화시킨 버전입니다. 미사일 런처와 하부 포탑, 그리고 P-52 멀린 도킹 시스템을 제거하여 극단적인 수송능력을 얻은 이 함선은 적의 공격에 좀 더 버티기 위해 좋은 품질의 장갑을 사용한 것이 특징입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨스텔레이션 시리즈 중 아퀼라는 상부포탑을 제거하고 탐사용 스캐너를 장착한 버전입니다. 또한 측면부 미사일 런처를 제거하여 공격능력은 안드로메다에 비해 낮아졌지만 본연의 임무인 탐사만큼은 확실하게 해낼 수 있도록 P-52 멀린 뿐만이 아니라 얼사 로버도 포함되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨스텔레이션 시리즈 중 피닉스는 중앙 덱을 2층으로 나눈 후 상부를 객실과 바(Bar)로 개조한 버전입니다. 기존 화물고에 해당하는 부분을 2층으로 나눔으로서 수송능력이 약간 낮아졌지만 상층의 고급스러운 객실과 바는 함선을 타고 관광하는 고객들을 편안하고 즐겁게 만들어 줄 것입니다. 또한 고객들의 안전한 관광을 위해 높은 품질의 장갑재를 사용했으며 PDS(Point-Defence System)를 지원합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨스텔레이션 시리즈 중 에메랄드는 피닉스 기반의 관광용 함선이며 2018년 3월 세인트 패트릭 데이의 기념으로 발매한 한정 함선입니다. 외관도색이 초록빛의 애매랄드 빛 색깔의 도색을 제외하면 피닉스와 차이없습니다. 추가로 구매 옵션에 따라 에메랄드 로버가 포함될 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polaris</t>
+  </si>
+  <si>
+    <t>1명/24명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,155,000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155m/82m/35m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴라리스는 민병대에게 보급하기 위한 초계함입니다. 강력한 대형 어뢰를 이용한 공격 뿐만이 아닌 내부 행어를 통해 소형기 한대를 보급할 수 있는 시설을 가지고 있으며, 이는 함대 호위 뿐만이 아닌 수색구조나 거점 순찰 등의 임무도 수행 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170m/50m/50m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명/7명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,496,000kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리온은 채광을 위해서 만들어진 대형 공장입니다. 단순 광석 채광 뿐만이 아니라 내부에 정제시설을 가지고 있는 이 대형함은 크기에 걸맞게 이동식 공장이나 다름없으며, 중앙의 회전식 외부 화물고에 저장하여 다른 함선과 교류할 수 있는 시스템을 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bengal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알수없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990m/???m/???m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??명/755명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ms / 900ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155,608,432kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅갈 급 항모는 UEE의 대표적인 전투함입니다. 길이 990m의 이 초대형함은 기밀에 의해 알려진 것이 거의 없어 내부에 다양한 함선들을 수용 가능하다는 점만 알 수 있을 뿐입니다. 큰 이벤트가 있을 경우 UEE는 이 항모를 내세워서 인류가 외부 세력들에게 대항 가능하다는 것을 알려줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900m/???m/???m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페가수스 급 항모는 소문만 무성한 초대형 항모로서 뱅갈 급 보다는 작으나 해당 함선을 보조하기 위한 항모인 것으로 추측하고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??명/??명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pegasus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???m/???m/???m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스는 단거리 탐사용으로 만들어졌으며, RSI가 퀀텀 드라이브를 개발하여 적용시킨 최초의 상용 우주선이였습니다. 2140년에 만들어진 이 함선은 3인이 탑승할 수 있었으며, Q-core VIII 엔진과 BTST급의 열 차폐막이 적용된 매우 오래된 함선입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로라 시리즈는 Roberts Space Industries 사의 X-7의 후예로, 최초로 초기형 점프엔진이 시운전된 기종입니다. 그 중에서 Aurora ES는 완벽한 초심자용 함선으로, 외관이 뛰어나진 않아도 업그레이드 모듈을 위한 충분한 공간을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로라 시리즈는 Roberts Space Industries 사의 X-7의 후예로, 최초로 초기형 점프엔진이 시운전된 기종입니다. Aurora CL은 화물 수송 모듈을 장착한 버전으로 저렴한 가격에 원활한 수송작업을 가능하게 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,10 +480,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -462,22 +766,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="2" max="2" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.0625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.4375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.3125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -506,208 +811,642 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
       </c>
       <c r="K4" s="1">
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
       <c r="K5" s="1">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
       </c>
       <c r="K6" s="1">
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>150</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1">
+        <v>250</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1">
+        <v>275</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="1">
+        <v>225</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>150</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1">
+        <v>275</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>350</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>350</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>750</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>575</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -724,7 +1463,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
